--- a/core/src/test/resources/llm-bench/galois/queries.xlsx
+++ b/core/src/test/resources/llm-bench/galois/queries.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzoveltri/git/galois/core/src/test/resources/llm-bench/galois/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D45561-1CE4-444E-9CEB-ACFB871DBB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9970C6-EA92-D04B-9410-5CBF0AF3D701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="queries" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">queries!$A$1:$C$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">queries!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="165">
   <si>
     <t>db_id</t>
   </si>
@@ -495,13 +495,52 @@
   </si>
   <si>
     <t>SELECT count(distinct t2.continent) as continent FROM country_language as t1 join country as t2 on t1.country_code_3_letters = t2.code_3_letters WHERE t1.language = 'Chinese'</t>
+  </si>
+  <si>
+    <t>tuples</t>
+  </si>
+  <si>
+    <t>attrs</t>
+  </si>
+  <si>
+    <t>tables</t>
+  </si>
+  <si>
+    <t>numerical conditions</t>
+  </si>
+  <si>
+    <t>categorical conditions</t>
+  </si>
+  <si>
+    <t>aggr</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>group by</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>order by</t>
+  </si>
+  <si>
+    <t>nested</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,6 +569,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -570,13 +616,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -792,10 +848,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02E9CF9-12E6-3744-87F0-C6B40749FBFD}">
-  <dimension ref="A1:C899"/>
+  <dimension ref="A1:P899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -806,816 +863,3231 @@
     <col min="4" max="23" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="D6">
+        <v>170</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="D7">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="D20">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>3</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>3</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <v>1</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
+        <v>2</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="D37">
+        <v>26</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5">
+        <v>1</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="D43">
+        <v>31</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5">
+        <v>1</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="D44">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
+        <v>1</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="D45">
+        <v>19</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <v>1</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
+        <v>1</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="D47">
+        <v>19</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5">
+        <v>1</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1</v>
+      </c>
+      <c r="H48" s="5">
+        <v>2</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
+        <v>1</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="D49">
+        <v>46</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0</v>
+      </c>
+      <c r="L50" s="5">
+        <v>1</v>
+      </c>
+      <c r="M50" s="5">
+        <v>1</v>
+      </c>
+      <c r="N50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5">
+        <v>2</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0</v>
+      </c>
+      <c r="M52" s="5">
+        <v>1</v>
+      </c>
+      <c r="N52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5">
+        <v>2</v>
+      </c>
+      <c r="H53" s="5">
+        <v>2</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C54" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5">
+        <v>2</v>
+      </c>
+      <c r="H54" s="5">
+        <v>2</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5">
+        <v>2</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0</v>
+      </c>
+      <c r="L55" s="5">
+        <v>1</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0</v>
+      </c>
+      <c r="N55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C56" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0</v>
+      </c>
+      <c r="L56" s="5">
+        <v>1</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0</v>
+      </c>
+      <c r="N56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C57" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="D57">
+        <v>52</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0</v>
+      </c>
+      <c r="K57" s="5">
+        <v>1</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0</v>
+      </c>
+      <c r="M57" s="5">
+        <v>0</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C58" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="D58">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0</v>
+      </c>
+      <c r="K58" s="5">
+        <v>1</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C59" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2</v>
+      </c>
+      <c r="I59" s="5">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="5">
+        <v>1</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C60" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5">
+        <v>1</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0</v>
+      </c>
+      <c r="N60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C61" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5">
+        <v>1</v>
+      </c>
+      <c r="H61" s="5">
+        <v>2</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5">
+        <v>1</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C62" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="D62">
+        <v>65</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C63" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5">
+        <v>1</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5">
+        <v>0</v>
+      </c>
+      <c r="L63" s="5">
+        <v>1</v>
+      </c>
+      <c r="M63" s="5">
+        <v>1</v>
+      </c>
+      <c r="N63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C64" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5">
+        <v>2</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0</v>
+      </c>
+      <c r="K64" s="5">
+        <v>0</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0</v>
+      </c>
+      <c r="N64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C65" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <v>1</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0</v>
+      </c>
+      <c r="M65" s="5">
+        <v>1</v>
+      </c>
+      <c r="N65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C66" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1</v>
+      </c>
+      <c r="G66" s="5">
+        <v>2</v>
+      </c>
+      <c r="H66" s="5">
+        <v>2</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <v>0</v>
+      </c>
+      <c r="K66" s="5">
+        <v>0</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0</v>
+      </c>
+      <c r="M66" s="5">
+        <v>0</v>
+      </c>
+      <c r="N66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C67" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="D67">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1</v>
+      </c>
+      <c r="G67" s="5">
+        <v>2</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5">
+        <v>0</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0</v>
+      </c>
+      <c r="N67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C68" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1</v>
+      </c>
+      <c r="G68" s="5">
+        <v>2</v>
+      </c>
+      <c r="H68" s="5">
+        <v>1</v>
+      </c>
+      <c r="I68" s="5">
+        <v>1</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0</v>
+      </c>
+      <c r="L68" s="5">
+        <v>1</v>
+      </c>
+      <c r="M68" s="5">
+        <v>0</v>
+      </c>
+      <c r="N68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C69" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" s="5">
+        <v>1</v>
+      </c>
+      <c r="G69" s="5">
+        <v>2</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1</v>
+      </c>
+      <c r="I69" s="5">
+        <v>1</v>
+      </c>
+      <c r="J69" s="5">
+        <v>0</v>
+      </c>
+      <c r="K69" s="5">
+        <v>0</v>
+      </c>
+      <c r="L69" s="5">
+        <v>1</v>
+      </c>
+      <c r="M69" s="5">
+        <v>0</v>
+      </c>
+      <c r="N69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="6" t="s">
         <v>150</v>
       </c>
       <c r="C70" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="5">
+        <v>1</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1</v>
+      </c>
+      <c r="I70" s="5">
+        <v>1</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0</v>
+      </c>
+      <c r="K70" s="5">
+        <v>1</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0</v>
+      </c>
+      <c r="M70" s="5">
+        <v>0</v>
+      </c>
+      <c r="N70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C71" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="D71">
+        <v>110</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="5">
+        <v>1</v>
+      </c>
+      <c r="G71" s="5">
+        <v>1</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0</v>
+      </c>
+      <c r="I71" s="5">
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0</v>
+      </c>
+      <c r="K71" s="5">
+        <v>0</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0</v>
+      </c>
+      <c r="M71" s="5">
+        <v>0</v>
+      </c>
+      <c r="N71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="6" t="s">
         <v>151</v>
       </c>
       <c r="C72" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="5">
+        <v>2</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <v>2</v>
+      </c>
+      <c r="I72" s="5">
+        <v>1</v>
+      </c>
+      <c r="J72" s="5">
+        <v>1</v>
+      </c>
+      <c r="K72" s="5">
+        <v>1</v>
+      </c>
+      <c r="L72" s="5">
+        <v>0</v>
+      </c>
+      <c r="M72" s="5">
+        <v>0</v>
+      </c>
+      <c r="N72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C73" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="5">
+        <v>2</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <v>2</v>
+      </c>
+      <c r="I73" s="5">
+        <v>0</v>
+      </c>
+      <c r="J73" s="5">
+        <v>1</v>
+      </c>
+      <c r="K73" s="5">
+        <v>0</v>
+      </c>
+      <c r="L73" s="5">
+        <v>0</v>
+      </c>
+      <c r="M73" s="5">
+        <v>0</v>
+      </c>
+      <c r="N73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2436,7 +4908,7 @@
     <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:C53" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:N1" xr:uid="{C02E9CF9-12E6-3744-87F0-C6B40749FBFD}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/core/src/test/resources/llm-bench/galois/queries.xlsx
+++ b/core/src/test/resources/llm-bench/galois/queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzoveltri/git/galois/core/src/test/resources/llm-bench/galois/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9970C6-EA92-D04B-9410-5CBF0AF3D701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D12C68-AB13-B24B-BA31-BD6FE4690E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="queries" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">queries!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">queries!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="167">
   <si>
     <t>db_id</t>
   </si>
@@ -534,6 +534,12 @@
   </si>
   <si>
     <t>like</t>
+  </si>
+  <si>
+    <t>attr numerical</t>
+  </si>
+  <si>
+    <t>attr categorical</t>
   </si>
 </sst>
 </file>
@@ -848,11 +854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02E9CF9-12E6-3744-87F0-C6B40749FBFD}">
-  <dimension ref="A1:P899"/>
+  <dimension ref="A1:R899"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:R73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -860,10 +866,10 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="104.6640625" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" customWidth="1"/>
-    <col min="4" max="23" width="10.6640625" customWidth="1"/>
+    <col min="4" max="25" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -880,40 +886,46 @@
         <v>153</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -930,10 +942,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -942,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -956,8 +968,14 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -974,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -986,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1000,8 +1018,14 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,13 +1051,13 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1044,8 +1068,14 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,11 +1091,11 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5" s="5">
         <v>1</v>
@@ -1074,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="5">
         <v>0</v>
@@ -1088,8 +1118,14 @@
       <c r="N5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1105,11 +1141,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -1118,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5">
         <v>0</v>
@@ -1132,8 +1168,14 @@
       <c r="N6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1149,11 +1191,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
@@ -1162,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="5">
         <v>0</v>
@@ -1176,8 +1218,14 @@
       <c r="N7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1193,20 +1241,20 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="5">
         <v>0</v>
@@ -1220,8 +1268,14 @@
       <c r="N8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1237,20 +1291,20 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5">
         <v>0</v>
@@ -1264,8 +1318,14 @@
       <c r="N9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1281,20 +1341,20 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
       </c>
       <c r="I10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5">
         <v>0</v>
@@ -1308,8 +1368,14 @@
       <c r="N10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1325,20 +1391,20 @@
       <c r="E11">
         <v>6</v>
       </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
       </c>
       <c r="I11" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="5">
         <v>0</v>
@@ -1352,8 +1418,14 @@
       <c r="N11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1369,35 +1441,41 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
       </c>
       <c r="N12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1413,35 +1491,41 @@
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
       </c>
       <c r="I13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>145</v>
       </c>
@@ -1467,13 +1551,13 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1484,8 +1568,14 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>145</v>
       </c>
@@ -1501,10 +1591,10 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" s="5">
@@ -1514,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="5">
         <v>0</v>
@@ -1528,8 +1618,14 @@
       <c r="N15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>145</v>
       </c>
@@ -1545,20 +1641,20 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
       </c>
       <c r="I16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="5">
         <v>0</v>
@@ -1572,8 +1668,14 @@
       <c r="N16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>145</v>
       </c>
@@ -1589,14 +1691,14 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="5">
         <v>1</v>
@@ -1611,13 +1713,19 @@
         <v>0</v>
       </c>
       <c r="M17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
@@ -1633,10 +1741,10 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" s="5">
@@ -1646,22 +1754,28 @@
         <v>0</v>
       </c>
       <c r="J18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="5">
         <v>0</v>
       </c>
       <c r="M18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>145</v>
       </c>
@@ -1677,35 +1791,41 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="5">
         <v>0</v>
       </c>
       <c r="K19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="5">
         <v>0</v>
       </c>
       <c r="M19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>145</v>
       </c>
@@ -1721,14 +1841,14 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
@@ -1737,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="5">
         <v>0</v>
@@ -1748,8 +1868,14 @@
       <c r="N20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>145</v>
       </c>
@@ -1765,20 +1891,20 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" s="5">
         <v>1</v>
       </c>
       <c r="I21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5">
         <v>0</v>
@@ -1792,8 +1918,14 @@
       <c r="N21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>145</v>
       </c>
@@ -1809,20 +1941,20 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
       </c>
       <c r="I22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="5">
         <v>0</v>
@@ -1836,8 +1968,14 @@
       <c r="N22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>145</v>
       </c>
@@ -1853,14 +1991,14 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
       </c>
       <c r="H23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="5">
         <v>0</v>
@@ -1869,19 +2007,25 @@
         <v>0</v>
       </c>
       <c r="K23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="5">
         <v>0</v>
       </c>
       <c r="M23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>145</v>
       </c>
@@ -1898,10 +2042,10 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1910,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1924,8 +2068,14 @@
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
@@ -1941,11 +2091,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="5">
-        <v>2</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0</v>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
       <c r="H25" s="5">
         <v>2</v>
@@ -1954,13 +2104,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="5">
         <v>0</v>
       </c>
       <c r="L25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="5">
         <v>0</v>
@@ -1968,8 +2118,14 @@
       <c r="N25" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>145</v>
       </c>
@@ -1985,14 +2141,14 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
       </c>
       <c r="H26" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -2012,8 +2168,14 @@
       <c r="N26" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>145</v>
       </c>
@@ -2029,14 +2191,14 @@
       <c r="E27">
         <v>3</v>
       </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0</v>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
       </c>
       <c r="H27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
@@ -2056,8 +2218,14 @@
       <c r="N27" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="5">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
@@ -2073,11 +2241,11 @@
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28" s="5">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
@@ -2086,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="5">
         <v>0</v>
@@ -2100,8 +2268,14 @@
       <c r="N28" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="5">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
@@ -2117,17 +2291,17 @@
       <c r="E29">
         <v>2</v>
       </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1</v>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
       </c>
       <c r="H29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="5">
         <v>0</v>
@@ -2144,8 +2318,14 @@
       <c r="N29" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="5">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>145</v>
       </c>
@@ -2161,17 +2341,17 @@
       <c r="E30">
         <v>2</v>
       </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>2</v>
       </c>
       <c r="H30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" s="5">
         <v>0</v>
@@ -2188,8 +2368,14 @@
       <c r="N30" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="O30" s="5">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>145</v>
       </c>
@@ -2205,18 +2391,18 @@
       <c r="E31">
         <v>2</v>
       </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
         <v>3</v>
       </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0</v>
-      </c>
       <c r="J31" s="5">
         <v>0</v>
       </c>
@@ -2232,8 +2418,14 @@
       <c r="N31" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="O31" s="5">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>145</v>
       </c>
@@ -2249,17 +2441,17 @@
       <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" s="5">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>2</v>
       </c>
       <c r="H32" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="5">
         <v>0</v>
@@ -2274,10 +2466,16 @@
         <v>0</v>
       </c>
       <c r="N32" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2293,18 +2491,18 @@
       <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
         <v>3</v>
       </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0</v>
-      </c>
       <c r="J33" s="5">
         <v>0</v>
       </c>
@@ -2318,10 +2516,16 @@
         <v>0</v>
       </c>
       <c r="N33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0</v>
+      </c>
+      <c r="P33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>145</v>
       </c>
@@ -2337,11 +2541,11 @@
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0</v>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
       </c>
       <c r="H34" s="5">
         <v>1</v>
@@ -2350,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="5">
         <v>0</v>
@@ -2359,13 +2563,19 @@
         <v>0</v>
       </c>
       <c r="M34" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <v>1</v>
+      </c>
+      <c r="P34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>145</v>
       </c>
@@ -2381,10 +2591,10 @@
       <c r="E35">
         <v>2</v>
       </c>
-      <c r="F35" s="5">
-        <v>2</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" s="5">
@@ -2394,10 +2604,10 @@
         <v>1</v>
       </c>
       <c r="J35" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="5">
         <v>1</v>
@@ -2406,10 +2616,16 @@
         <v>0</v>
       </c>
       <c r="N35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>145</v>
       </c>
@@ -2426,10 +2642,10 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -2438,22 +2654,28 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>145</v>
       </c>
@@ -2469,17 +2691,17 @@
       <c r="E37">
         <v>3</v>
       </c>
-      <c r="F37" s="5">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
       </c>
       <c r="H37" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="5">
         <v>0</v>
@@ -2496,8 +2718,14 @@
       <c r="N37" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="5">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>145</v>
       </c>
@@ -2513,11 +2741,11 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" s="5">
-        <v>1</v>
-      </c>
-      <c r="G38" s="5">
-        <v>1</v>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
       </c>
       <c r="H38" s="5">
         <v>1</v>
@@ -2526,10 +2754,10 @@
         <v>1</v>
       </c>
       <c r="J38" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="5">
         <v>0</v>
@@ -2540,8 +2768,14 @@
       <c r="N38" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="5">
+        <v>0</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>145</v>
       </c>
@@ -2557,11 +2791,11 @@
       <c r="E39">
         <v>3</v>
       </c>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0</v>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
       </c>
       <c r="H39" s="5">
         <v>1</v>
@@ -2570,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="5">
         <v>0</v>
@@ -2584,8 +2818,14 @@
       <c r="N39" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="5">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>145</v>
       </c>
@@ -2601,11 +2841,11 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5">
-        <v>1</v>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
@@ -2614,10 +2854,10 @@
         <v>1</v>
       </c>
       <c r="J40" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="5">
         <v>0</v>
@@ -2628,8 +2868,14 @@
       <c r="N40" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="5">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>145</v>
       </c>
@@ -2645,14 +2891,14 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5">
-        <v>1</v>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
       </c>
       <c r="H41" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
@@ -2667,13 +2913,19 @@
         <v>0</v>
       </c>
       <c r="M41" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="5">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>145</v>
       </c>
@@ -2689,23 +2941,23 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" s="5">
-        <v>1</v>
-      </c>
-      <c r="G42" s="5">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5">
         <v>0</v>
       </c>
       <c r="K42" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="5">
         <v>0</v>
@@ -2716,8 +2968,14 @@
       <c r="N42" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="O42" s="5">
+        <v>0</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>145</v>
       </c>
@@ -2733,35 +2991,41 @@
       <c r="E43">
         <v>2</v>
       </c>
-      <c r="F43" s="5">
-        <v>2</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1</v>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
       </c>
       <c r="H43" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="5">
         <v>1</v>
       </c>
       <c r="K43" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="5">
+        <v>0</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -2777,11 +3041,11 @@
       <c r="E44">
         <v>2</v>
       </c>
-      <c r="F44" s="5">
-        <v>1</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0</v>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
       </c>
       <c r="H44" s="5">
         <v>1</v>
@@ -2790,22 +3054,28 @@
         <v>0</v>
       </c>
       <c r="J44" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="5">
         <v>0</v>
       </c>
       <c r="M44" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="5">
+        <v>0</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -2821,35 +3091,41 @@
       <c r="E45">
         <v>2</v>
       </c>
-      <c r="F45" s="5">
-        <v>1</v>
-      </c>
-      <c r="G45" s="5">
-        <v>0</v>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
       </c>
       <c r="H45" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" s="5">
         <v>0</v>
       </c>
       <c r="J45" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="5">
         <v>0</v>
       </c>
       <c r="M45" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="5">
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
@@ -2865,20 +3141,20 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" s="5">
-        <v>1</v>
-      </c>
-      <c r="G46" s="5">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K46" s="5">
         <v>1</v>
@@ -2887,13 +3163,19 @@
         <v>0</v>
       </c>
       <c r="M46" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="5">
+        <v>0</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
@@ -2909,35 +3191,41 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" s="5">
-        <v>1</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0</v>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
       </c>
       <c r="H47" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="5">
         <v>0</v>
       </c>
       <c r="J47" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K47" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="5">
         <v>0</v>
       </c>
       <c r="M47" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="O47" s="5">
+        <v>0</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
@@ -2953,35 +3241,41 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" s="5">
-        <v>1</v>
-      </c>
-      <c r="G48" s="5">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K48" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="5">
         <v>0</v>
       </c>
       <c r="M48" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="5">
+        <v>0</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>86</v>
       </c>
@@ -2997,11 +3291,11 @@
       <c r="E49">
         <v>5</v>
       </c>
-      <c r="F49" s="5">
-        <v>1</v>
-      </c>
-      <c r="G49" s="5">
-        <v>0</v>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
       </c>
       <c r="H49" s="5">
         <v>1</v>
@@ -3010,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="5">
         <v>0</v>
@@ -3024,8 +3318,14 @@
       <c r="N49" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="O49" s="5">
+        <v>0</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
@@ -3041,35 +3341,41 @@
       <c r="E50">
         <v>2</v>
       </c>
-      <c r="F50" s="5">
-        <v>1</v>
-      </c>
-      <c r="G50" s="5">
-        <v>0</v>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
       </c>
       <c r="H50" s="5">
         <v>1</v>
       </c>
       <c r="I50" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="5">
+        <v>1</v>
+      </c>
+      <c r="P50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>86</v>
       </c>
@@ -3085,23 +3391,23 @@
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" s="5">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5">
-        <v>2</v>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
       </c>
       <c r="H51" s="5">
         <v>1</v>
       </c>
       <c r="I51" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="5">
         <v>0</v>
@@ -3112,8 +3418,14 @@
       <c r="N51" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="5">
+        <v>0</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>86</v>
       </c>
@@ -3129,11 +3441,11 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52" s="5">
-        <v>1</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0</v>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
       </c>
       <c r="H52" s="5">
         <v>1</v>
@@ -3142,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="5">
         <v>0</v>
@@ -3151,13 +3463,19 @@
         <v>0</v>
       </c>
       <c r="M52" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="5">
+        <v>1</v>
+      </c>
+      <c r="P52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>86</v>
       </c>
@@ -3173,20 +3491,20 @@
       <c r="E53">
         <v>5</v>
       </c>
-      <c r="F53" s="5">
-        <v>1</v>
-      </c>
-      <c r="G53" s="5">
-        <v>2</v>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
       </c>
       <c r="H53" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K53" s="5">
         <v>0</v>
@@ -3200,8 +3518,14 @@
       <c r="N53" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="O53" s="5">
+        <v>0</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>86</v>
       </c>
@@ -3217,20 +3541,20 @@
       <c r="E54">
         <v>5</v>
       </c>
-      <c r="F54" s="5">
-        <v>1</v>
-      </c>
-      <c r="G54" s="5">
-        <v>2</v>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
       </c>
       <c r="H54" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K54" s="5">
         <v>0</v>
@@ -3244,8 +3568,14 @@
       <c r="N54" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="O54" s="5">
+        <v>0</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>86</v>
       </c>
@@ -3261,26 +3591,26 @@
       <c r="E55">
         <v>2</v>
       </c>
-      <c r="F55" s="5">
-        <v>1</v>
-      </c>
-      <c r="G55" s="5">
-        <v>2</v>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
       </c>
       <c r="H55" s="5">
         <v>1</v>
       </c>
       <c r="I55" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" s="5">
         <v>0</v>
@@ -3288,8 +3618,14 @@
       <c r="N55" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="O55" s="5">
+        <v>0</v>
+      </c>
+      <c r="P55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>86</v>
       </c>
@@ -3305,26 +3641,26 @@
       <c r="E56">
         <v>2</v>
       </c>
-      <c r="F56" s="5">
-        <v>1</v>
-      </c>
-      <c r="G56" s="5">
-        <v>2</v>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
       </c>
       <c r="H56" s="5">
         <v>1</v>
       </c>
       <c r="I56" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="5">
         <v>0</v>
@@ -3332,8 +3668,14 @@
       <c r="N56" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O56" s="5">
+        <v>0</v>
+      </c>
+      <c r="P56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -3349,11 +3691,11 @@
       <c r="E57">
         <v>2</v>
       </c>
-      <c r="F57" s="5">
-        <v>1</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0</v>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
       </c>
       <c r="H57" s="5">
         <v>1</v>
@@ -3362,22 +3704,28 @@
         <v>0</v>
       </c>
       <c r="J57" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="5">
         <v>0</v>
       </c>
       <c r="M57" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O57" s="5">
+        <v>0</v>
+      </c>
+      <c r="P57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>86</v>
       </c>
@@ -3393,35 +3741,41 @@
       <c r="E58">
         <v>2</v>
       </c>
-      <c r="F58" s="5">
-        <v>1</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0</v>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
       </c>
       <c r="H58" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" s="5">
         <v>0</v>
       </c>
       <c r="J58" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K58" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="5">
         <v>0</v>
       </c>
       <c r="M58" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O58" s="5">
+        <v>0</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>86</v>
       </c>
@@ -3437,20 +3791,20 @@
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59" s="5">
-        <v>1</v>
-      </c>
-      <c r="G59" s="5">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K59" s="5">
         <v>1</v>
@@ -3459,13 +3813,19 @@
         <v>0</v>
       </c>
       <c r="M59" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O59" s="5">
+        <v>0</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>86</v>
       </c>
@@ -3481,35 +3841,41 @@
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" s="5">
-        <v>1</v>
-      </c>
-      <c r="G60" s="5">
-        <v>0</v>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
       </c>
       <c r="H60" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" s="5">
         <v>0</v>
       </c>
       <c r="J60" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K60" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="5">
         <v>0</v>
       </c>
       <c r="M60" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O60" s="5">
+        <v>0</v>
+      </c>
+      <c r="P60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>86</v>
       </c>
@@ -3525,35 +3891,41 @@
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" s="5">
-        <v>1</v>
-      </c>
-      <c r="G61" s="5">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K61" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="5">
         <v>0</v>
       </c>
       <c r="M61" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O61" s="5">
+        <v>0</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>86</v>
       </c>
@@ -3569,11 +3941,11 @@
       <c r="E62">
         <v>5</v>
       </c>
-      <c r="F62" s="5">
-        <v>1</v>
-      </c>
-      <c r="G62" s="5">
-        <v>0</v>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
       </c>
       <c r="H62" s="5">
         <v>1</v>
@@ -3582,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="5">
         <v>0</v>
@@ -3596,8 +3968,14 @@
       <c r="N62" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O62" s="5">
+        <v>0</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>86</v>
       </c>
@@ -3613,35 +3991,41 @@
       <c r="E63">
         <v>2</v>
       </c>
-      <c r="F63" s="5">
-        <v>1</v>
-      </c>
-      <c r="G63" s="5">
-        <v>0</v>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
       </c>
       <c r="H63" s="5">
         <v>1</v>
       </c>
       <c r="I63" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O63" s="5">
+        <v>1</v>
+      </c>
+      <c r="P63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>86</v>
       </c>
@@ -3657,23 +4041,23 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64" s="5">
-        <v>1</v>
-      </c>
-      <c r="G64" s="5">
-        <v>2</v>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
       </c>
       <c r="H64" s="5">
         <v>1</v>
       </c>
       <c r="I64" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="5">
         <v>0</v>
@@ -3684,8 +4068,14 @@
       <c r="N64" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O64" s="5">
+        <v>0</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
@@ -3701,11 +4091,11 @@
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" s="5">
-        <v>1</v>
-      </c>
-      <c r="G65" s="5">
-        <v>0</v>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
       </c>
       <c r="H65" s="5">
         <v>1</v>
@@ -3714,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="5">
         <v>0</v>
@@ -3723,13 +4113,19 @@
         <v>0</v>
       </c>
       <c r="M65" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O65" s="5">
+        <v>1</v>
+      </c>
+      <c r="P65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>86</v>
       </c>
@@ -3745,20 +4141,20 @@
       <c r="E66">
         <v>5</v>
       </c>
-      <c r="F66" s="5">
-        <v>1</v>
-      </c>
-      <c r="G66" s="5">
-        <v>2</v>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
       </c>
       <c r="H66" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K66" s="5">
         <v>0</v>
@@ -3772,8 +4168,14 @@
       <c r="N66" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O66" s="5">
+        <v>0</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>86</v>
       </c>
@@ -3789,20 +4191,20 @@
       <c r="E67">
         <v>5</v>
       </c>
-      <c r="F67" s="5">
-        <v>1</v>
-      </c>
-      <c r="G67" s="5">
-        <v>2</v>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
       </c>
       <c r="H67" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K67" s="5">
         <v>0</v>
@@ -3816,8 +4218,14 @@
       <c r="N67" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O67" s="5">
+        <v>0</v>
+      </c>
+      <c r="P67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>86</v>
       </c>
@@ -3833,26 +4241,26 @@
       <c r="E68">
         <v>2</v>
       </c>
-      <c r="F68" s="5">
-        <v>1</v>
-      </c>
-      <c r="G68" s="5">
-        <v>2</v>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
       </c>
       <c r="H68" s="5">
         <v>1</v>
       </c>
       <c r="I68" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" s="5">
         <v>0</v>
@@ -3860,8 +4268,14 @@
       <c r="N68" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O68" s="5">
+        <v>0</v>
+      </c>
+      <c r="P68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>86</v>
       </c>
@@ -3877,26 +4291,26 @@
       <c r="E69">
         <v>2</v>
       </c>
-      <c r="F69" s="5">
-        <v>1</v>
-      </c>
-      <c r="G69" s="5">
-        <v>2</v>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
       </c>
       <c r="I69" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" s="5">
         <v>0</v>
@@ -3904,8 +4318,14 @@
       <c r="N69" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O69" s="5">
+        <v>0</v>
+      </c>
+      <c r="P69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -3921,20 +4341,20 @@
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70" s="5">
-        <v>1</v>
-      </c>
-      <c r="G70" s="5">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" s="5">
         <v>1</v>
       </c>
       <c r="I70" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="5">
         <v>1</v>
@@ -3943,13 +4363,19 @@
         <v>0</v>
       </c>
       <c r="M70" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O70" s="5">
+        <v>0</v>
+      </c>
+      <c r="P70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>138</v>
       </c>
@@ -3965,17 +4391,17 @@
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71" s="5">
-        <v>1</v>
-      </c>
-      <c r="G71" s="5">
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
         <v>1</v>
       </c>
       <c r="H71" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="5">
         <v>0</v>
@@ -3992,8 +4418,14 @@
       <c r="N71" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="O71" s="5">
+        <v>0</v>
+      </c>
+      <c r="P71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
@@ -4009,35 +4441,41 @@
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72" s="5">
-        <v>2</v>
-      </c>
-      <c r="G72" s="5">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" s="5">
         <v>2</v>
       </c>
       <c r="I72" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K72" s="5">
         <v>1</v>
       </c>
       <c r="L72" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O72" s="5">
+        <v>0</v>
+      </c>
+      <c r="P72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>138</v>
       </c>
@@ -4053,11 +4491,11 @@
       <c r="E73">
         <v>1</v>
       </c>
-      <c r="F73" s="5">
-        <v>2</v>
-      </c>
-      <c r="G73" s="5">
-        <v>0</v>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
       </c>
       <c r="H73" s="5">
         <v>2</v>
@@ -4066,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="J73" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K73" s="5">
         <v>0</v>
       </c>
       <c r="L73" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" s="5">
         <v>0</v>
@@ -4080,14 +4518,20 @@
       <c r="N73" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="O73" s="5">
+        <v>0</v>
+      </c>
+      <c r="P73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4908,7 +5352,7 @@
     <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{C02E9CF9-12E6-3744-87F0-C6B40749FBFD}"/>
+  <autoFilter ref="A1:P1" xr:uid="{C02E9CF9-12E6-3744-87F0-C6B40749FBFD}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
